--- a/tests/BASE-AGREGAR.xlsx
+++ b/tests/BASE-AGREGAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NITRO\Desktop\DB PROJECT\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927A22DB-7F64-4ECE-AC41-A826FF04C538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8D52A7-01E2-4251-9924-3AC540A6883D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Nombre</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Not you</t>
+  </si>
+  <si>
+    <t>SEXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
   </si>
 </sst>
 </file>
@@ -391,11 +394,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -405,33 +406,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1006</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -439,10 +434,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -450,10 +445,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -461,10 +456,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -472,10 +467,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -483,12 +478,23 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1021</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>1022</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
